--- a/biology/Botanique/Goodyérie_panachée/Goodyérie_panachée.xlsx
+++ b/biology/Botanique/Goodyérie_panachée/Goodyérie_panachée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Goody%C3%A9rie_panach%C3%A9e</t>
+          <t>Goodyérie_panachée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goodyera tesselata
-La Goodyérie panachée[1] (Goodyera tesselata) est une espèce de plantes herbacées de la famille des Orchidaceae (Orchidées) présente en Amérique du Nord. Une centaine d'espèces de Goodyérie panachée ont été recensées[2].
+La Goodyérie panachée (Goodyera tesselata) est une espèce de plantes herbacées de la famille des Orchidaceae (Orchidées) présente en Amérique du Nord. Une centaine d'espèces de Goodyérie panachée ont été recensées.
 Ses feuilles, disposées en rosette basale, présentent de légères réticulations blanchâtres.
 </t>
         </is>
